--- a/how2heap/how2heap.xlsx
+++ b/how2heap/how2heap.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="12150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="77">
   <si>
     <t>glibc_2.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +195,2341 @@
   </si>
   <si>
     <t>unsorted_bin_into_stack.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标位置周围内存内容可控，并且目标位置可以释放、分配、写入，就可以任意改写整个目标位置。
+https://colorlight.github.io/2021/06/17/%E5%A0%86%E5%88%A9%E7%94%A8%E7%B3%BB%E5%88%97%E5%85%AB%EF%BC%9A%C2%96House-of-Spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比释放到fastbin，释放到tcache，不用检查nextchunk-&gt;size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：释放两个相同chunk到fastbin，绕过double free检测
+1. 向fastbin添加chunk之前，只会检查链表头是否为要添加的chunk，不会检查整个链表 (见: double_free_check.png)；
+   否则严重影响释放效率
+2. malloc()优先从tcache获取chunk (见: __libc_malloc.png)，calloc()直接从top chunk分配chunk (见: __libc_calloc.png)；
+   演示程序，也可以先malloc(a,b,c)，再填充tcache
+3. tcache比fastbin优先级高，所以要保证对应tcache是满的，再释放的chunk才会添加到fastbin；
+   tcache使用tcache_entry结果，连接chunk，fastbin直接使用chunk-&gt;fd
+4. calloc()会对分配内存清零 (见: calloc-memset.png)。(42: chunk(a)-&gt;fd = NULL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：
+1. 释放两个相同chunk到fastbin，绕过double free检测
+   向fastbin添加chunk之前，只会检查链表头是否为要添加的chunk，不会检查整个链表 (见: double_free_check.png)；
+2. 类似tcache_poisoning
+   其中一个被分配出来后，另外一仍然在fastbin中，分配出来的，可以通过应用程序写入内容，控制其fd指针，最终可以将任意位置，分配给应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk添加到tcache后，修改其fd值，即是修改其下个链接结点，实现将指定chunk，添加到tcache链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>node:     A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nextnode: B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果node和nextnode在同一个4K page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则仅低12位不相等，即：
+node地址也可以表示为：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加密指针：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+加密指针 = node&gt;&gt;12 ^ nextnode
+=&gt; C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+=&gt; C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^ B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+=&gt; B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ^ C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+同理可求：B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也就是说，仅通过加密指针本身，就可以还原出nextnode地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev_chunk、next_chunk：表示地址相邻的上一个和下一个chunk
+prev chunk、next chunk：表示链表连接的上一个和下一个chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 在chunk0_ptr位置(本身为用户数据区)，构造一个fake_chunk，并保证：
+    fake_chunk-&gt;fd-&gt;bk = &amp;chunk0_ptr
+    fake_chunk-&gt;bk-&gt;fd = &amp;chunk0_ptr
+    使得unlink()时，不会向一个不可写的位置写入内容，其实，unlink(fake_chunk)最终会在&amp;chunk0_ptr处，写入&amp;chunk0_ptr-3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 利用漏洞，向chunk1_ptr-&gt;prev_size处，写入0x420
+    free(chunk1_ptr)时，就会认为fake_chunk是它的prev_chunk，并且状态为free，所以执行合并，合并前先会unlink(fake_chunk)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>绕过double free检测，也是先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挤出fastbin链表头(最新添加位置)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只不过是挤到unsorted bin</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastbin FILO，tcache FILO
+=&gt; 位于fastbin链表尾(最先添加位置)的chunk，会最后取出
+=&gt; 最后取出的chunk，会添加到tcache链表头(最新添加位置)，所以chunks从fastbin移到tcache后，会和原来的顺序相反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有tcache，或已满，从smallbin取出的每个chunk，都要检查chunk-&gt;bk-&gt;fd == chunk
+如果有tcache，且未满，从smallbin取出chunk，只会对第一个取出chunk进行检查，后续取出到到tcache的不做检查
+用于分配可以添加到smallbin，且不满足检查条件的chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改smallbin chunk的bk指针，可以将伪造chunk，添加到smallbin，后续就可以分配到
+有tcache的话，伪造chunk会从tcache中转一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用漏洞，修改chunk(p2)-&gt;size
+再等p2释放后，在下一处更大分配请求处，就可以把chunk(p3)当作用户数据区，返回给程序，不再需要溢出，就可以改写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用漏洞，修改chunk(p2)-&gt;size
+free(p2)时，还会与已释放的chunk(p4)合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以用于泄漏libc地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：在指定位置，写入一个数值，见：house_of_storm、poison_null_byte
+           有些情况也可以利用unsorted bin，见：house_of_gods
+过程：chunk(p1)添加到large bin，改写bk指向fake_chunk(&amp;target-4)，chunk(p2)添加到它们之间时，target值就为chunk(p2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配释放会影响fd、bk、fd_nextsize、bk_nextsize值，如果通过程序交互，可写入的范围有限，可以利用这一点
+剩余部分同unsafe_unlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk添加到unsorted bin后，修改其bk值，可以将指定chunk，添加到unsorted bin，用于分配任意地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk(prev)和chunk(a)已经释放合并，程序仍在将a当作分配空间用，通过prev，就可以控制程序的业务数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_of_botcake + tcache_poisoning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用漏洞，改写top chunk size为最大值，然后分配超级大的区间，就会让top chunk退回到低地址位置
+可以控制它正好在bss段附近，后续就可以把bss区间，分配给程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用unsorted_bin_into_stack方法，获取unsorted bin地址
+smallbin[7] = binat(9)，binmap第9位置1，即0x200(最低位为第0位)，后续作为binmap-chunk的size
+单线程程序，只有一个arena，所以main_arena的next指向自己，后续作为binmap-chunk的bk
+再利用unsorted_bin_attack方法，将binmap-chunk添加到unsorted bin (bk赋值：binmap-chunk相对unsorted bin，偏移0x7f8)
+将FAST20、FAST40释放到fastbin，分别作为binmap-chunk-&gt;bk的size、bk (2*SIZE_SZ &lt; size &lt;= av-&gt;system_mem)
+unlink(unsorted bin chunks)的过程中，会将unsorted bin地址，写入narenas变量，使其大于1
+binmap-chunk已经分配给程序了，可以利用交互，在其bk位置，写入fake_arena地址 (bk位置同时也是main_arena-&gt;next位置)
+触发2次reused_arena()，使thread_arena指向fake_arena，后续分配释放，就会使用fake_arena分配区
+https://github.com/Milo-D/house-of-gods/blob/master/rev2/HOUSE_OF_GODS.TXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造fake_arena、fake_heap_info (两者位置关系：https://sploitfun.wordpress.com/2015/02/10/understanding-glibc-malloc/)
+修改chunk_ptr size标志位，欺骗libc，认为它是非主分配区分配的，就会向下64M对齐找sub_heap，进一步找到所属arena
+最终释放到fake_arena的fastbin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将top chunk的size改为很小的值，再去分配一个较大的区间，就会触发top chunk扩展
+由于top_end与brk已经错开了，libc就会认为当时是非主分配区，新区域是mmap()分配的，不能连在旧的top chunk后面，从而将旧top chunk释放到unsorted bin
+构造_IO_FILE ...
+后续利用unsorted_bin_attack，修改_IO_list_all指针，使其指向unsorted bin，最后malloc()，会触发top从unsorted bin移到smallbin[4]，&amp;smallbin[4]-&gt;fd又正好为_IO_list_all-&gt;file._chain的位置，这也是前面设置top[1]=0x61的目的
+malloc()还会触发abort()，打印错误时，会遍历_IO_list_all中的所有FILE对象，如果满足条件，执行它的__overflow函数
+__overflow已经在前面被设置为winner()，并且接收fp参数，winner()内部执行了system()函数，并将fp指向的"/bin/bash"传给它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是触发top chunk释放，但是是释放到tcache，并且释放了2次，为了后续满足tcache count检查
+再通过改fd，将fake_chunk添加到tcache，后续就可以分配到了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsorted_bin_into_stack + large_bin_attack (为了方便理解，fake_chunk处，按大端字节序写的)
+主要控制了一下libc地址泄漏到的位置，恰好在取出fake_chunk之前，改对了它的size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_arena_chunk用于两处，一是加入unsorted bin，泄漏libc地址，二是触发切割，后续加入fastbin[5]
+victim_chunk-&gt;fd最低一个字节清零，就会从指向relative_chunk，换到main_arena_chunk (top chunk起始位置+0x70+0x90)
+__memalign_hook变量下方是severity_list变量(0x00007f...)，并且当中空了8字节(0x0)，见：__malloc_hook.png、severity_list.png
+将__malloc_hook_adjust视为一个chunk，其size就为0x7f，属于fastbin[5]范围，最终可以将其链入fastbin，并分配给程序
+利用unsorted_bin_into_stack，以及低字节覆盖，将__malloc_hook变量附近的区域，当作chunk链入unsorted bin
+再次利用unsorted_bin_into_stack，以及低字节覆盖，将__malloc_hook变量修改为system函数地址
+最后执行一次malloc()，触发__malloc_hook，即system()执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序首次malloc()，会触发init()，先分配一个tcache
+free(fake_size_lsb)，会将fake_size_lsb添加到tcache-&gt;entries[60]，且tcache-&gt;counts[60] += 1
+free(fake_size_msb)，会将fake_size_lsb添加到tcache-&gt;entries[61]，且tcache-&gt;counts[61] += 1
+由于tcache是从top chunk起始位置分配的，按页对齐，所以fake_size_lsb低12位清零，就会到达tcache位置
+再将chunk(unsorted_start)释放到tcache-&gt;entries[1] (释放过程中，会将fd位置设置为tcache_key，所以需要恢复)
+再将chunk(unsorted_end)释放到tcache-&gt;entries[0] (释放过程中，会将fd位置设置为tcache_key，所以需要恢复)
+此时，就伪造出来一个fake_chunk，fd、bk分配指向..，并且满足：2*SIZE_SZ &lt; size &lt;= av-&gt;system_mem
+再将start、middle、end释放到unsorted bin，修改start-&gt;fd、end-&gt;bk，即可将middle替换为fake_chunk，后续可以分配给程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文通过动态图片，将how2heap仓库里面的演示程序，直观展示出来，方便理解和记忆。
+演示程序仅仅用于描述攻击的关键步骤，其中执行的所有操作，在实际攻击中，都要通过程序的本地/远程交互逻辑触发:
+1. 交互可以访问并显示的范围通常有限，甚至依赖信息泄漏漏洞；
+2. 交互可以向程序写入的范围通常有限，甚至依赖写溢出漏洞；
+3. 交互通常不能轻易控制分配、释放的时机，以及分配内存的大小。
+不过话说回来，只有透彻理解最基本的原型，才能从极其复杂的真实程序中，隐隐约约的发现它们，并且游刃有余的实现攻击。
+就跟下棋一样，不懂招数，看到的整盘棋都是零散的，反之每个阶段围绕一个战略目标，就可以分而治之，只需要应付每个较小范围里的变数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrypt_safe_linking (glibc-2.34)
+fastbin_dup_consolidate (glibc-2.23)
+fastbin_dup (glibc-2.34)
+fastbin_dup_into_stack (glibc-2.23)
+fastbin_reverse_into_tcache (glibc-2.34)
+house_of_botcake (glibc-2.34)
+house_of_einherjar (glibc-2.34)
+house_of_force (glibc-2.27)
+house_of_gods (glibc-2.24)
+house_of_lore (glibc-2.34)
+house_of_mind_fastbin (glibc-2.34)
+house_of_orange (glibc-2.23)
+house_of_roman (glibc-2.23)
+house_of_spirit (glibc-2.23)
+house_of_storm (glibc-2.34)
+house_of_tangerine (glibc-2.39)
+house_of_water (glibc-2.36)
+large_bin_attack (glibc-2.34)
+overlapping_chunks_2 (glibc-2.23)
+overlapping_chunks (glibc-2.34)
+poison_null_byte (glibc-2.34)
+tcache_house_of_spirit (glibc-2.34)
+tcache_poisoning (glibc-2.34)
+tcache_stashing_unlink_attack (glibc-2.34)
+unsafe_unlink (glibc-2.34)
+unsorted_bin_attack (glibc-2.27)
+unsorted_bin_into_stack (glibc-2.23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +2537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +2587,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +2660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -295,6 +2668,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -577,17 +2968,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:O37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:15">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -626,7 +3017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:15">
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -667,7 +3058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:15">
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -708,7 +3099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:15">
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -749,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:15">
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
@@ -790,7 +3181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:15">
       <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
@@ -831,7 +3222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:15">
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -872,7 +3263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:15">
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
@@ -913,7 +3304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:15">
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
@@ -954,7 +3345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:15">
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
@@ -995,7 +3386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:15">
       <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +3427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:15">
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +3468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15">
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +3509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15">
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1159,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15">
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +3591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15">
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +3632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15">
       <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15">
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
@@ -1323,7 +3714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15">
       <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +3755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15">
       <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
@@ -1405,7 +3796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15">
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1446,7 +3837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15">
       <c r="C26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1487,7 +3878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15">
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
@@ -1528,7 +3919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15">
       <c r="C28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1569,7 +3960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15">
       <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +4001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15">
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1651,7 +4042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15">
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1692,7 +4083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15">
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1733,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15">
       <c r="C33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1774,7 +4165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15">
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1815,7 +4206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15">
       <c r="C35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1856,7 +4247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15">
       <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
@@ -1897,7 +4288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15">
       <c r="C37" s="6" t="s">
         <v>45</v>
       </c>
@@ -1936,6 +4327,338 @@
       </c>
       <c r="O37" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="42.75">
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="42.75">
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="141">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="28.5">
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="42.75">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="28.5">
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" ht="85.5">
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="28.5">
+      <c r="B19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" ht="128.25">
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="85.5">
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:3" ht="28.5">
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="28.5">
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="2:3" ht="114">
+      <c r="B30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="28.5">
+      <c r="B31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:3" ht="99.75">
+      <c r="B33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="114">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="9"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" ht="28.5">
+      <c r="B36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="2:3" ht="128.25">
+      <c r="B38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="42.75">
+      <c r="B39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:3" ht="42.75">
+      <c r="B41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="9"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="48" spans="2:3" ht="28.5">
+      <c r="C48" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" ht="142.5">
+      <c r="C50" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" ht="384.75">
+      <c r="C52" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
